--- a/public/assets/product-import-template.xlsx
+++ b/public/assets/product-import-template.xlsx
@@ -67,19 +67,19 @@
     <t xml:space="preserve">demo</t>
   </si>
   <si>
-    <t xml:space="preserve">c3854ea7-4fdf-49f0-aa31-847acf28ad5a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0ebfad6c-d81f-48c3-9b2b-02ec8e6cdad3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6f7e6a00-7c8b-45ba-8336-145254d71548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca5ea1da-df1c-4e5e-baba-3be5c63daa1f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8f6e8bac-de2d-4d29-b108-0525fc66d8e0</t>
+    <t xml:space="preserve">f243adf4-1cf7-40e7-941c-9549dc987b95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6e4a2b9-bdd7-44de-97b9-b5f6f2588a20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cbf7c588-eb3f-4a12-9f03-0c71d4365c25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">959db27b-15be-471c-acaa-e0ea81168803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7e6d3758-aad6-4e5c-948b-9d15303d0e1c</t>
   </si>
 </sst>
 </file>
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -111,12 +111,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,7 +160,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -190,7 +184,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/assets/product-import-template.xlsx
+++ b/public/assets/product-import-template.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
   <si>
     <t xml:space="preserve">productID</t>
   </si>
@@ -181,29 +184,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.32"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -240,34 +243,34 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>400</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>4000</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>16</v>
       </c>
       <c r="J2" s="0" t="s">
         <v>17</v>
@@ -278,26 +281,29 @@
       <c r="L2" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="M2" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/product-import-template.xlsx
+++ b/public/assets/product-import-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">alertQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxAlertQuantity</t>
   </si>
   <si>
     <t xml:space="preserve">categoryId</t>
@@ -184,10 +187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -200,10 +203,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,19 +250,22 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>0</v>
@@ -272,8 +279,8 @@
       <c r="I2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="J2" s="0" t="s">
-        <v>17</v>
+      <c r="J2" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="K2" s="0" t="s">
         <v>18</v>
@@ -283,6 +290,9 @@
       </c>
       <c r="M2" s="0" t="s">
         <v>20</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/assets/product-import-template.xlsx
+++ b/public/assets/product-import-template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">description</t>
   </si>
   <si>
-    <t xml:space="preserve">taxRateId</t>
-  </si>
-  <si>
     <t xml:space="preserve">quantity</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f243adf4-1cf7-40e7-941c-9549dc987b95</t>
   </si>
   <si>
     <t xml:space="preserve">f6e4a2b9-bdd7-44de-97b9-b5f6f2588a20</t>
@@ -187,10 +181,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -198,16 +192,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -250,70 +244,59 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="K2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>4000</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
-      <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-      <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
-      <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-      <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
-      <c r="E7" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/public/assets/product-import-template.xlsx
+++ b/public/assets/product-import-template.xlsx
@@ -8,19 +8,19 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Products" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -43,57 +43,80 @@
     <t xml:space="preserve">sellingPrice</t>
   </si>
   <si>
+    <t xml:space="preserve">maxAlertQuantity</t>
+  </si>
+  <si>
     <t xml:space="preserve">alertQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">maxAlertQuantity</t>
+    <t xml:space="preserve">Category</t>
   </si>
   <si>
     <t xml:space="preserve">categoryId</t>
   </si>
   <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">brandId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
     <t xml:space="preserve">typeId</t>
   </si>
   <si>
-    <t xml:space="preserve">brandId</t>
+    <t xml:space="preserve">Unit</t>
   </si>
   <si>
     <t xml:space="preserve">unitId</t>
   </si>
   <si>
-    <t xml:space="preserve">MF-C170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f6e4a2b9-bdd7-44de-97b9-b5f6f2588a20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbf7c588-eb3f-4a12-9f03-0c71d4365c25</t>
+    <t xml:space="preserve">MF-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flourecare N-terminal Pro Brain Type Natriuretic Peptide (NT-proBNP) Diagnostic Test Kits, Immunochromatographic Assay, 20 pc/pk.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiac Marker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ba77f459-2174-4844-a3fe-4ef85dadfbd7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLOURECARE</t>
   </si>
   <si>
     <t xml:space="preserve">959db27b-15be-471c-acaa-e0ea81168803</t>
   </si>
   <si>
-    <t xml:space="preserve">7e6d3758-aad6-4e5c-948b-9d15303d0e1c</t>
+    <t xml:space="preserve">IMMUNOFLORESCENCE CATRIDGES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d8e14a1f-6825-4f68-877a-0cffa70524b1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pack(s)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3e89daa7-7928-4871-9ec7-f56b4510d227</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="4">
-    <font>
-      <sz val="11"/>
+  <fonts count="7">
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -112,16 +135,42 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF323232"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -129,8 +178,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,25 +210,98 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal 2" xfId="20"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF323232"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -181,30 +310,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="73.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="19.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="35.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="39.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="31.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="38.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="40.04"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -244,59 +376,95 @@
       <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>17</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>4000</v>
+        <v>160</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="2"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="2"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="2"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="2"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2"/>
+      <c r="F8" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
